--- a/Data/OrustTjorn_ships_v1.xlsx
+++ b/Data/OrustTjorn_ships_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f7dd912bb4abd67/Sweden_Maps/DagsGifs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f7dd912bb4abd67/Sweden_Shipping_Maps/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{B18D7901-4686-4EC2-B840-77FB0C5F6D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D867B6-A95E-48CB-83EE-DD7B7CF9EE2B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{B18D7901-4686-4EC2-B840-77FB0C5F6D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D0E1084-AA25-465C-B1B7-414C4D0F1324}"/>
   <bookViews>
     <workbookView xWindow="1464" yWindow="870" windowWidth="15900" windowHeight="9330" xr2:uid="{5EC61A97-5E7B-4DA2-AFBE-125888D5553B}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>M/T Procyon, 16/5 1940</t>
   </si>
   <si>
-    <t>MD 498 Elly av Dyrön, 6/11 1944</t>
-  </si>
-  <si>
     <t>Westfalen (ty), 8/9 1944</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>MD 466 Dunett av Rönnäng, 13/3 1941</t>
+  </si>
+  <si>
+    <t>MD 498 Elly av Dyrön, 6/11 1940</t>
   </si>
 </sst>
 </file>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681BC188-E5CB-4A62-BE16-5573CE47DBAC}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -664,7 +664,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
       </c>
       <c r="C24">
         <v>58.347999999999999</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
